--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_389__Reeval_Taguchi_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_1.1_KS_Holdout_seed_42/metrics/Trial_389__Reeval_Taguchi_Modell_1.1.xlsx
@@ -5417,10 +5417,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="90"/>
                 <c:pt idx="0">
-                  <c:v>0.3315171897411346</c:v>
+                  <c:v>0.3315153121948242</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.04867508262395859</c:v>
+                  <c:v>-0.0486694872379303</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>51.89117050170898</c:v>
@@ -5432,22 +5432,22 @@
                   <c:v>41.39830780029297</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.967214584350586</c:v>
+                  <c:v>4.967216491699219</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02031702734529972</c:v>
+                  <c:v>0.0203188918530941</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.3349764049053192</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.09174270182847977</c:v>
+                  <c:v>0.09174457192420959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.441624641418457</c:v>
+                  <c:v>6.441617965698242</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.358866453170776</c:v>
+                  <c:v>2.35886549949646</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>48.74213027954102</c:v>
@@ -5456,7 +5456,7 @@
                   <c:v>0.3561157882213593</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.8752601146697998</c:v>
+                  <c:v>-0.8752619624137878</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>45.71693801879883</c:v>
@@ -5477,55 +5477,55 @@
                   <c:v>-1.507622241973877</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.71562671661377</c:v>
+                  <c:v>8.715632438659668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.018557190895081</c:v>
+                  <c:v>1.018555283546448</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>42.21957397460938</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.4413391649723053</c:v>
+                  <c:v>0.4413372874259949</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1607310771942139</c:v>
+                  <c:v>0.1607292145490646</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0.3795731663703918</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.3655815422534943</c:v>
+                  <c:v>0.3655796647071838</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48.85775756835938</c:v>
+                  <c:v>48.85776138305664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1180494800209999</c:v>
+                  <c:v>0.1180476099252701</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>50.22309112548828</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.4504281878471375</c:v>
+                  <c:v>0.4504337906837463</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.4427265524864197</c:v>
+                  <c:v>0.4427247047424316</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.85556602478027</c:v>
+                  <c:v>17.85556793212891</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.8954857587814331</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.3031572699546814</c:v>
+                  <c:v>0.3031609952449799</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>47.32061767578125</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.3195805847644806</c:v>
+                  <c:v>0.3195843100547791</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>11.03085899353027</c:v>
@@ -5534,7 +5534,7 @@
                   <c:v>52.009521484375</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5754949450492859</c:v>
+                  <c:v>0.575491189956665</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>41.12481689453125</c:v>
@@ -5543,25 +5543,25 @@
                   <c:v>0.4238118827342987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.4172235131263733</c:v>
+                  <c:v>0.4172216653823853</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5752525329589844</c:v>
+                  <c:v>0.5752506256103516</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-0.0545492134988308</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-0.7851584553718567</c:v>
+                  <c:v>-0.7851603031158447</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>17.02922439575195</c:v>
+                  <c:v>17.02922058105469</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.3046192824840546</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48.39788436889648</c:v>
+                  <c:v>48.39788818359375</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.7736544609069824</c:v>
@@ -5570,22 +5570,22 @@
                   <c:v>-0.2071404308080673</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.03777344524860382</c:v>
+                  <c:v>0.03777158260345459</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.6796572208404541</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.04620794951915741</c:v>
+                  <c:v>0.04620981216430664</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1960262060165405</c:v>
+                  <c:v>0.1960243433713913</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.3985195457935333</c:v>
+                  <c:v>-0.3985214233398438</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3466220796108246</c:v>
+                  <c:v>0.346625804901123</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>-0.03960468247532845</c:v>
@@ -5594,82 +5594,82 @@
                   <c:v>-0.1225175410509109</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.6081588268280029</c:v>
+                  <c:v>-0.6081550717353821</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.7459397912025452</c:v>
+                  <c:v>0.7459434866905212</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.4667470753192902</c:v>
+                  <c:v>0.4667452275753021</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.07145551592111588</c:v>
+                  <c:v>-0.07145364582538605</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.814512312412262</c:v>
+                  <c:v>0.8145104646682739</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>0.265201061964035</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.4531209766864777</c:v>
+                  <c:v>0.4531190991401672</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.7017737627029419</c:v>
+                  <c:v>0.7017775177955627</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>48.39652252197266</c:v>
+                  <c:v>48.39652633666992</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.3219283819198608</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.7185868620872498</c:v>
+                  <c:v>0.7185905575752258</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>0.03210258111357689</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.4479219019412994</c:v>
+                  <c:v>0.4479237794876099</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0.1577343493700027</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>49.80999374389648</c:v>
+                  <c:v>49.80998992919922</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.51339721679688</c:v>
+                  <c:v>46.51339340209961</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>-0.06783965975046158</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-0.6946036219596863</c:v>
+                  <c:v>-0.6945998668670654</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.501268863677979</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.3649531006813049</c:v>
+                  <c:v>0.3649568259716034</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-0.2453763484954834</c:v>
+                  <c:v>-0.2453726232051849</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>0.4713624715805054</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.4497773945331573</c:v>
+                  <c:v>0.4497755169868469</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.138276994228363</c:v>
+                  <c:v>-0.1382732689380646</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.7136656045913696</c:v>
+                  <c:v>0.7136637568473816</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>-3.455052614212036</c:v>
+                  <c:v>-3.455050706863403</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>41.07056045532227</c:v>
@@ -5681,10 +5681,10 @@
                   <c:v>0.7013224959373474</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>-0.07045598328113556</c:v>
+                  <c:v>-0.07045411318540573</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>-1.191722750663757</c:v>
+                  <c:v>-1.191720843315125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3315171897411346</v>
+        <v>0.3315153121948242</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -6411,7 +6411,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.04867508262395859</v>
+        <v>-0.0486694872379303</v>
       </c>
       <c r="G3">
         <v>72</v>
@@ -6539,7 +6539,7 @@
         <v>45.5437</v>
       </c>
       <c r="F7">
-        <v>4.967214584350586</v>
+        <v>4.967216491699219</v>
       </c>
       <c r="G7">
         <v>72</v>
@@ -6571,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.02031702734529972</v>
+        <v>0.0203188918530941</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.09174270182847977</v>
+        <v>0.09174457192420959</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>6.441624641418457</v>
+        <v>6.441617965698242</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -6651,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.358866453170776</v>
+        <v>2.35886549949646</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -6711,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>-0.8752601146697998</v>
+        <v>-0.8752619624137878</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -6851,7 +6851,7 @@
         <v>46.4283</v>
       </c>
       <c r="F22">
-        <v>8.71562671661377</v>
+        <v>8.715632438659668</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.018557190895081</v>
+        <v>1.018555283546448</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6911,7 +6911,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4413391649723053</v>
+        <v>0.4413372874259949</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6931,7 +6931,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.1607310771942139</v>
+        <v>0.1607292145490646</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6971,7 +6971,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.3655815422534943</v>
+        <v>0.3655796647071838</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6991,7 +6991,7 @@
         <v>49.5298</v>
       </c>
       <c r="F29">
-        <v>48.85775756835938</v>
+        <v>48.85776138305664</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.1180494800209999</v>
+        <v>0.1180476099252701</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7051,7 +7051,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.4504281878471375</v>
+        <v>0.4504337906837463</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.4427265524864197</v>
+        <v>0.4427247047424316</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7091,7 +7091,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>17.85556602478027</v>
+        <v>17.85556793212891</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7131,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.3031572699546814</v>
+        <v>0.3031609952449799</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.3195805847644806</v>
+        <v>0.3195843100547791</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.5754949450492859</v>
+        <v>0.575491189956665</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7291,7 +7291,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.4172235131263733</v>
+        <v>0.4172216653823853</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7311,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.5752525329589844</v>
+        <v>0.5752506256103516</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>-0.7851584553718567</v>
+        <v>-0.7851603031158447</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>17.02922439575195</v>
+        <v>17.02922058105469</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>50.0511</v>
       </c>
       <c r="F50">
-        <v>48.39788436889648</v>
+        <v>48.39788818359375</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7471,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.03777344524860382</v>
+        <v>0.03777158260345459</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.04620794951915741</v>
+        <v>0.04620981216430664</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.1960262060165405</v>
+        <v>0.1960243433713913</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>-0.3985195457935333</v>
+        <v>-0.3985214233398438</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.3466220796108246</v>
+        <v>0.346625804901123</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>-0.6081588268280029</v>
+        <v>-0.6081550717353821</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.7459397912025452</v>
+        <v>0.7459434866905212</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.4667470753192902</v>
+        <v>0.4667452275753021</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>-0.07145551592111588</v>
+        <v>-0.07145364582538605</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.814512312412262</v>
+        <v>0.8145104646682739</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.4531209766864777</v>
+        <v>0.4531190991401672</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.7017737627029419</v>
+        <v>0.7017775177955627</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.8632</v>
       </c>
       <c r="F69">
-        <v>48.39652252197266</v>
+        <v>48.39652633666992</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.7185868620872498</v>
+        <v>0.7185905575752258</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.4479219019412994</v>
+        <v>0.4479237794876099</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>51.39</v>
       </c>
       <c r="F75">
-        <v>49.80999374389648</v>
+        <v>49.80998992919922</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>46.3983</v>
       </c>
       <c r="F76">
-        <v>46.51339721679688</v>
+        <v>46.51339340209961</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>-0.6946036219596863</v>
+        <v>-0.6945998668670654</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.3649531006813049</v>
+        <v>0.3649568259716034</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>-0.2453763484954834</v>
+        <v>-0.2453726232051849</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.4497773945331573</v>
+        <v>0.4497755169868469</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.138276994228363</v>
+        <v>-0.1382732689380646</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.7136656045913696</v>
+        <v>0.7136637568473816</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>-3.455052614212036</v>
+        <v>-3.455050706863403</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>-0.07045598328113556</v>
+        <v>-0.07045411318540573</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>-1.191722750663757</v>
+        <v>-1.191720843315125</v>
       </c>
     </row>
     <row r="92" spans="1:6">
